--- a/lab2/Book1.xlsx
+++ b/lab2/Book1.xlsx
@@ -202,90 +202,80 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$5:$A$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$3:$B$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$3,Sheet1!$B$5:$B$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.69</c:v>
+                  <c:v>5.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.74</c:v>
+                  <c:v>5.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.76</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.75</c:v>
+                  <c:v>5.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.83</c:v>
+                  <c:v>5.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.82</c:v>
+                  <c:v>5.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.87</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>5.85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.91</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,8 +291,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="590655264"/>
-        <c:axId val="590646016"/>
+        <c:axId val="-2034033056"/>
+        <c:axId val="-2034032512"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -373,49 +363,40 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                          <c15:sqref>(Sheet1!$A$3,Sheet1!$A$5:$A$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>10</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>15</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>25</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -424,49 +405,40 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                          <c15:sqref>(Sheet1!$A$3,Sheet1!$A$5:$A$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>10</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>15</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>25</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -478,7 +450,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="590655264"/>
+        <c:axId val="-2034033056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590646016"/>
+        <c:crossAx val="-2034032512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,7 +557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="590646016"/>
+        <c:axId val="-2034032512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590655264"/>
+        <c:crossAx val="-2034033056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -845,90 +817,80 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$5:$A$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$3:$D$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$3,Sheet1!$D$5:$D$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>187106.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350764.56</c:v>
+                  <c:v>872259.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>872259.19</c:v>
+                  <c:v>1740724.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1740724.38</c:v>
+                  <c:v>2612959.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2612959.75</c:v>
+                  <c:v>3479055.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3479055.25</c:v>
+                  <c:v>4326106.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4326106.5</c:v>
+                  <c:v>5173459.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5173459.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>6055715</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8629023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12847908</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17146100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,8 +906,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="590650368"/>
-        <c:axId val="590657984"/>
+        <c:axId val="-2034038496"/>
+        <c:axId val="-2034025440"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1016,49 +978,40 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                          <c15:sqref>(Sheet1!$A$3,Sheet1!$A$5:$A$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>10</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>15</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>25</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1067,49 +1020,40 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3:$A$14</c15:sqref>
+                          <c15:sqref>(Sheet1!$A$3,Sheet1!$A$5:$A$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>10</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>15</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>20</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>25</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1121,7 +1065,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="590650368"/>
+        <c:axId val="-2034038496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,15 +1164,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590657984"/>
+        <c:crossAx val="-2034025440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="590657984"/>
+        <c:axId val="-2034025440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590650368"/>
+        <c:crossAx val="-2034038496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1552,8 +1498,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="593748224"/>
-        <c:axId val="593753664"/>
+        <c:axId val="-2034035776"/>
+        <c:axId val="-43584224"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1699,7 +1645,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="593748224"/>
+        <c:axId val="-2034035776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593753664"/>
+        <c:crossAx val="-43584224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1806,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="593753664"/>
+        <c:axId val="-43584224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593748224"/>
+        <c:crossAx val="-2034035776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2130,8 +2076,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="593745504"/>
-        <c:axId val="593740064"/>
+        <c:axId val="-43597280"/>
+        <c:axId val="-97732896"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2277,7 +2223,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="593745504"/>
+        <c:axId val="-43597280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593740064"/>
+        <c:crossAx val="-97732896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2384,7 +2330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="593740064"/>
+        <c:axId val="-97732896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,7 +2437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593745504"/>
+        <c:crossAx val="-43597280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2696,8 +2642,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="538833328"/>
-        <c:axId val="538826800"/>
+        <c:axId val="-1979594720"/>
+        <c:axId val="-1979601248"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2831,7 +2777,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="538833328"/>
+        <c:axId val="-1979594720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538826800"/>
+        <c:crossAx val="-1979601248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2938,7 +2884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538826800"/>
+        <c:axId val="-1979601248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +2991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538833328"/>
+        <c:crossAx val="-1979594720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3250,8 +3196,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="598588656"/>
-        <c:axId val="598587024"/>
+        <c:axId val="-1979595808"/>
+        <c:axId val="-1979599072"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3385,7 +3331,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="598588656"/>
+        <c:axId val="-1979595808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598587024"/>
+        <c:crossAx val="-1979599072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3492,7 +3438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598587024"/>
+        <c:axId val="-1979599072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3599,7 +3545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598588656"/>
+        <c:crossAx val="-1979595808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6934,16 +6880,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6969,16 +6915,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6999,16 +6945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7361,7 +7307,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7527,7 +7473,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7634,10 +7580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="A3" sqref="A3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7711,6 +7657,11 @@
         <v>2600479.25</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
